--- a/target_betas.xlsx
+++ b/target_betas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repos\staircase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0665E8DB-DF34-4520-AD07-2A715B6566EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779422F3-7DE8-4800-983A-7632AF2B10D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -511,47 +511,47 @@
     </row>
     <row r="2" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -567,9 +567,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,25 +690,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -727,9 +720,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>